--- a/age_means_data.xlsx
+++ b/age_means_data.xlsx
@@ -401,19 +401,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>60.45595562533871</v>
+        <v>59.87124934497245</v>
       </c>
       <c r="C2">
-        <v>1.252147908974894</v>
+        <v>0.2959971687491965</v>
       </c>
       <c r="D2">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E2">
-        <v>58.00000871345978</v>
+        <v>59.29068453228387</v>
       </c>
       <c r="F2">
-        <v>62.91190253721764</v>
+        <v>60.45181415766104</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -428,19 +428,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>62.64825155682859</v>
+        <v>62.07504175816011</v>
       </c>
       <c r="C3">
-        <v>1.246035856882926</v>
+        <v>0.3073559955958241</v>
       </c>
       <c r="D3">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E3">
-        <v>60.20429274583848</v>
+        <v>61.47219789730211</v>
       </c>
       <c r="F3">
-        <v>65.09221036781871</v>
+        <v>62.67788561901811</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -455,19 +455,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>63.69152477475382</v>
+        <v>63.09915708230246</v>
       </c>
       <c r="C4">
-        <v>1.381460715538619</v>
+        <v>0.6420788306891397</v>
       </c>
       <c r="D4">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E4">
-        <v>60.98194537611334</v>
+        <v>61.83979241457418</v>
       </c>
       <c r="F4">
-        <v>66.4011041733943</v>
+        <v>64.35852175003075</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>109.4527442256788</v>
+        <v>111.4734215176497</v>
       </c>
       <c r="C5">
-        <v>2.207496628105045</v>
+        <v>0.5216112834330607</v>
       </c>
       <c r="D5">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E5">
-        <v>105.1229885411317</v>
+        <v>110.4503402552774</v>
       </c>
       <c r="F5">
-        <v>113.7824999102258</v>
+        <v>112.4965027800221</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -509,19 +509,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>108.8117603131193</v>
+        <v>110.8226110978106</v>
       </c>
       <c r="C6">
-        <v>2.196721276178077</v>
+        <v>0.5416280027645338</v>
       </c>
       <c r="D6">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E6">
-        <v>104.5031392661816</v>
+        <v>109.760269314946</v>
       </c>
       <c r="F6">
-        <v>113.120381360057</v>
+        <v>111.8849528806752</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>106.6943796634145</v>
+        <v>108.7216054737588</v>
       </c>
       <c r="C7">
-        <v>2.435470961180376</v>
+        <v>1.131482319091845</v>
       </c>
       <c r="D7">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E7">
-        <v>101.9174780344539</v>
+        <v>106.5023314738761</v>
       </c>
       <c r="F7">
-        <v>111.4712812923751</v>
+        <v>110.9408794736416</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -563,19 +563,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>99.26162821637105</v>
+        <v>93.63818078330706</v>
       </c>
       <c r="C8">
-        <v>3.057956928056993</v>
+        <v>0.7238575381130589</v>
       </c>
       <c r="D8">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E8">
-        <v>93.26379056453264</v>
+        <v>92.21841647338587</v>
       </c>
       <c r="F8">
-        <v>105.2594658682095</v>
+        <v>95.05794509322826</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -590,19 +590,19 @@
         </is>
       </c>
       <c r="B9">
-        <v>106.9185824581755</v>
+        <v>101.3472329196135</v>
       </c>
       <c r="C9">
-        <v>3.043030263319294</v>
+        <v>0.751635413394086</v>
       </c>
       <c r="D9">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E9">
-        <v>100.9500217758583</v>
+        <v>99.87298546369611</v>
       </c>
       <c r="F9">
-        <v>112.8871431404926</v>
+        <v>102.8214803755308</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>109.4869520913759</v>
+        <v>103.828785911391</v>
       </c>
       <c r="C10">
-        <v>3.373760668081419</v>
+        <v>1.570196105662629</v>
       </c>
       <c r="D10">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E10">
-        <v>102.8697010183964</v>
+        <v>100.7490246696854</v>
       </c>
       <c r="F10">
-        <v>116.1042031643554</v>
+        <v>106.9085471530966</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -644,19 +644,19 @@
         </is>
       </c>
       <c r="B11">
-        <v>17.73263440398744</v>
+        <v>18.02789681008836</v>
       </c>
       <c r="C11">
-        <v>0.5650518033027815</v>
+        <v>0.1335004467845181</v>
       </c>
       <c r="D11">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E11">
-        <v>16.62434901579461</v>
+        <v>17.76605085322055</v>
       </c>
       <c r="F11">
-        <v>18.84091979218028</v>
+        <v>18.28974276695617</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -671,19 +671,19 @@
         </is>
       </c>
       <c r="B12">
-        <v>18.67819367779106</v>
+        <v>18.97275615880135</v>
       </c>
       <c r="C12">
-        <v>0.5622936418813608</v>
+        <v>0.1386234973372673</v>
       </c>
       <c r="D12">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E12">
-        <v>17.57531811217337</v>
+        <v>18.70086192040058</v>
       </c>
       <c r="F12">
-        <v>19.78106924340874</v>
+        <v>19.24465039720212</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -698,19 +698,19 @@
         </is>
       </c>
       <c r="B13">
-        <v>18.74232198183113</v>
+        <v>19.03805082755149</v>
       </c>
       <c r="C13">
-        <v>0.6234062788525557</v>
+        <v>0.289589968478757</v>
       </c>
       <c r="D13">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E13">
-        <v>17.51958087080112</v>
+        <v>18.47005301015068</v>
       </c>
       <c r="F13">
-        <v>19.96506309286114</v>
+        <v>19.6060486449523</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="B14">
-        <v>42.00035565501688</v>
+        <v>44.19184981096711</v>
       </c>
       <c r="C14">
-        <v>0.9125633052854921</v>
+        <v>0.2158068519162584</v>
       </c>
       <c r="D14">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E14">
-        <v>40.21046564645969</v>
+        <v>43.76856919281418</v>
       </c>
       <c r="F14">
-        <v>43.79024566357406</v>
+        <v>44.61513042912003</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -752,19 +752,19 @@
         </is>
       </c>
       <c r="B15">
-        <v>42.60025632236526</v>
+        <v>44.78081080015667</v>
       </c>
       <c r="C15">
-        <v>0.9081088519264717</v>
+        <v>0.2240883928296095</v>
       </c>
       <c r="D15">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E15">
-        <v>40.81910322171871</v>
+        <v>44.34128688052404</v>
       </c>
       <c r="F15">
-        <v>44.38140942301182</v>
+        <v>45.22033471978929</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="B16">
-        <v>42.71805393471951</v>
+        <v>44.91683844128804</v>
       </c>
       <c r="C16">
-        <v>1.006806262788927</v>
+        <v>0.4681295152877089</v>
       </c>
       <c r="D16">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E16">
-        <v>40.74331699331364</v>
+        <v>43.99865559006189</v>
       </c>
       <c r="F16">
-        <v>44.69279087612537</v>
+        <v>45.8350212925142</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -806,19 +806,19 @@
         </is>
       </c>
       <c r="B17">
-        <v>115.8432989578327</v>
+        <v>115.2833173892807</v>
       </c>
       <c r="C17">
-        <v>1.988744092189123</v>
+        <v>0.469993197060413</v>
       </c>
       <c r="D17">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E17">
-        <v>111.9426017025636</v>
+        <v>114.3614791380254</v>
       </c>
       <c r="F17">
-        <v>119.7439962131019</v>
+        <v>116.2051556405361</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -833,19 +833,19 @@
         </is>
       </c>
       <c r="B18">
-        <v>117.0811619757127</v>
+        <v>116.5341795233623</v>
       </c>
       <c r="C18">
-        <v>1.979036526971045</v>
+        <v>0.4880290835760223</v>
       </c>
       <c r="D18">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E18">
-        <v>113.1995050148436</v>
+        <v>115.5769659301033</v>
       </c>
       <c r="F18">
-        <v>120.9628189365819</v>
+        <v>117.4913931166212</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -860,19 +860,19 @@
         </is>
       </c>
       <c r="B19">
-        <v>115.1101724900526</v>
+        <v>114.5415281333033</v>
       </c>
       <c r="C19">
-        <v>2.194127240820934</v>
+        <v>1.019512057076795</v>
       </c>
       <c r="D19">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E19">
-        <v>110.8066393509244</v>
+        <v>112.5418710793128</v>
       </c>
       <c r="F19">
-        <v>119.4137056291809</v>
+        <v>116.5411851872938</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -887,19 +887,19 @@
         </is>
       </c>
       <c r="B20">
-        <v>151.41428788508</v>
+        <v>148.9833993131405</v>
       </c>
       <c r="C20">
-        <v>2.644027936465421</v>
+        <v>0.6253200781321092</v>
       </c>
       <c r="D20">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E20">
-        <v>146.2283252692098</v>
+        <v>147.7569050342753</v>
       </c>
       <c r="F20">
-        <v>156.6002505009502</v>
+        <v>150.2098935920056</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -914,19 +914,19 @@
         </is>
       </c>
       <c r="B21">
-        <v>157.8642521830346</v>
+        <v>155.4663464356074</v>
       </c>
       <c r="C21">
-        <v>2.631121764307592</v>
+        <v>0.6493165998597905</v>
       </c>
       <c r="D21">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E21">
-        <v>152.7036035683523</v>
+        <v>154.1927857060702</v>
       </c>
       <c r="F21">
-        <v>163.024900797717</v>
+        <v>156.7399071651447</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -941,19 +941,19 @@
         </is>
       </c>
       <c r="B22">
-        <v>159.4024145963388</v>
+        <v>156.9495458206324</v>
       </c>
       <c r="C22">
-        <v>2.917084075158451</v>
+        <v>1.35644805749378</v>
       </c>
       <c r="D22">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E22">
-        <v>153.680883158458</v>
+        <v>154.2890270874686</v>
       </c>
       <c r="F22">
-        <v>165.1239460342196</v>
+        <v>159.6100645537961</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -968,19 +968,19 @@
         </is>
       </c>
       <c r="B23">
-        <v>281.2012838282015</v>
+        <v>280.549228648549</v>
       </c>
       <c r="C23">
-        <v>2.806277696422692</v>
+        <v>0.663242606171626</v>
       </c>
       <c r="D23">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E23">
-        <v>275.6970866059689</v>
+        <v>279.248353640027</v>
       </c>
       <c r="F23">
-        <v>286.7054810504341</v>
+        <v>281.8501036570711</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -995,19 +995,19 @@
         </is>
       </c>
       <c r="B24">
-        <v>282.7441166531959</v>
+        <v>282.1124659539652</v>
       </c>
       <c r="C24">
-        <v>2.792579541961765</v>
+        <v>0.6886943966486927</v>
       </c>
       <c r="D24">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E24">
-        <v>277.2667868161225</v>
+        <v>280.7616701504796</v>
       </c>
       <c r="F24">
-        <v>288.2214464902693</v>
+        <v>283.4632617574508</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1022,19 +1022,19 @@
         </is>
       </c>
       <c r="B25">
-        <v>286.8544846146935</v>
+        <v>286.1888316112021</v>
       </c>
       <c r="C25">
-        <v>3.096089820310428</v>
+        <v>1.438709832372514</v>
       </c>
       <c r="D25">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E25">
-        <v>280.781853595155</v>
+        <v>283.3669657539232</v>
       </c>
       <c r="F25">
-        <v>292.9271156342321</v>
+        <v>289.010697468481</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1049,19 +1049,19 @@
         </is>
       </c>
       <c r="B26">
-        <v>146.0570766521724</v>
+        <v>146.3033083386354</v>
       </c>
       <c r="C26">
-        <v>1.390415795308032</v>
+        <v>0.3285988775409958</v>
       </c>
       <c r="D26">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E26">
-        <v>143.3299328744776</v>
+        <v>145.6587989786458</v>
       </c>
       <c r="F26">
-        <v>148.7842204298672</v>
+        <v>146.9478176986249</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="B27">
-        <v>146.8657854251613</v>
+        <v>147.1214228131406</v>
       </c>
       <c r="C27">
-        <v>1.383628822531489</v>
+        <v>0.3412087878578981</v>
       </c>
       <c r="D27">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E27">
-        <v>144.1519535291636</v>
+        <v>146.4521805469138</v>
       </c>
       <c r="F27">
-        <v>149.579617321159</v>
+        <v>147.7906650793673</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1103,19 +1103,19 @@
         </is>
       </c>
       <c r="B28">
-        <v>148.0831180581201</v>
+        <v>148.3230816569054</v>
       </c>
       <c r="C28">
-        <v>1.534007912096385</v>
+        <v>0.7127986525981227</v>
       </c>
       <c r="D28">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E28">
-        <v>145.0743345370141</v>
+        <v>146.9250080943135</v>
       </c>
       <c r="F28">
-        <v>151.0919015792261</v>
+        <v>149.7211552194973</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>

--- a/age_means_data.xlsx
+++ b/age_means_data.xlsx
@@ -401,19 +401,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>59.87124934497245</v>
+        <v>59.871</v>
       </c>
       <c r="C2">
-        <v>0.2959971687491965</v>
+        <v>0.296</v>
       </c>
       <c r="D2">
         <v>1669</v>
       </c>
       <c r="E2">
-        <v>59.29068453228387</v>
+        <v>59.291</v>
       </c>
       <c r="F2">
-        <v>60.45181415766104</v>
+        <v>60.452</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -428,19 +428,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>62.07504175816011</v>
+        <v>62.075</v>
       </c>
       <c r="C3">
-        <v>0.3073559955958241</v>
+        <v>0.307</v>
       </c>
       <c r="D3">
         <v>1669</v>
       </c>
       <c r="E3">
-        <v>61.47219789730211</v>
+        <v>61.472</v>
       </c>
       <c r="F3">
-        <v>62.67788561901811</v>
+        <v>62.678</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -455,19 +455,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>63.09915708230246</v>
+        <v>63.099</v>
       </c>
       <c r="C4">
-        <v>0.6420788306891397</v>
+        <v>0.642</v>
       </c>
       <c r="D4">
         <v>1669</v>
       </c>
       <c r="E4">
-        <v>61.83979241457418</v>
+        <v>61.84</v>
       </c>
       <c r="F4">
-        <v>64.35852175003075</v>
+        <v>64.35899999999999</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>111.4734215176497</v>
+        <v>111.473</v>
       </c>
       <c r="C5">
-        <v>0.5216112834330607</v>
+        <v>0.522</v>
       </c>
       <c r="D5">
         <v>1669</v>
       </c>
       <c r="E5">
-        <v>110.4503402552774</v>
+        <v>110.45</v>
       </c>
       <c r="F5">
-        <v>112.4965027800221</v>
+        <v>112.497</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -509,19 +509,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>110.8226110978106</v>
+        <v>110.823</v>
       </c>
       <c r="C6">
-        <v>0.5416280027645338</v>
+        <v>0.542</v>
       </c>
       <c r="D6">
         <v>1669</v>
       </c>
       <c r="E6">
-        <v>109.760269314946</v>
+        <v>109.76</v>
       </c>
       <c r="F6">
-        <v>111.8849528806752</v>
+        <v>111.885</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>108.7216054737588</v>
+        <v>108.722</v>
       </c>
       <c r="C7">
-        <v>1.131482319091845</v>
+        <v>1.131</v>
       </c>
       <c r="D7">
         <v>1669</v>
       </c>
       <c r="E7">
-        <v>106.5023314738761</v>
+        <v>106.502</v>
       </c>
       <c r="F7">
-        <v>110.9408794736416</v>
+        <v>110.941</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -563,19 +563,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>93.63818078330706</v>
+        <v>93.63800000000001</v>
       </c>
       <c r="C8">
-        <v>0.7238575381130589</v>
+        <v>0.724</v>
       </c>
       <c r="D8">
         <v>1669</v>
       </c>
       <c r="E8">
-        <v>92.21841647338587</v>
+        <v>92.218</v>
       </c>
       <c r="F8">
-        <v>95.05794509322826</v>
+        <v>95.05800000000001</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -590,19 +590,19 @@
         </is>
       </c>
       <c r="B9">
-        <v>101.3472329196135</v>
+        <v>101.347</v>
       </c>
       <c r="C9">
-        <v>0.751635413394086</v>
+        <v>0.752</v>
       </c>
       <c r="D9">
         <v>1669</v>
       </c>
       <c r="E9">
-        <v>99.87298546369611</v>
+        <v>99.873</v>
       </c>
       <c r="F9">
-        <v>102.8214803755308</v>
+        <v>102.821</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>103.828785911391</v>
+        <v>103.829</v>
       </c>
       <c r="C10">
-        <v>1.570196105662629</v>
+        <v>1.57</v>
       </c>
       <c r="D10">
         <v>1669</v>
       </c>
       <c r="E10">
-        <v>100.7490246696854</v>
+        <v>100.749</v>
       </c>
       <c r="F10">
-        <v>106.9085471530966</v>
+        <v>106.909</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -644,19 +644,19 @@
         </is>
       </c>
       <c r="B11">
-        <v>18.02789681008836</v>
+        <v>18.028</v>
       </c>
       <c r="C11">
-        <v>0.1335004467845181</v>
+        <v>0.134</v>
       </c>
       <c r="D11">
         <v>1669</v>
       </c>
       <c r="E11">
-        <v>17.76605085322055</v>
+        <v>17.766</v>
       </c>
       <c r="F11">
-        <v>18.28974276695617</v>
+        <v>18.29</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -671,19 +671,19 @@
         </is>
       </c>
       <c r="B12">
-        <v>18.97275615880135</v>
+        <v>18.973</v>
       </c>
       <c r="C12">
-        <v>0.1386234973372673</v>
+        <v>0.139</v>
       </c>
       <c r="D12">
         <v>1669</v>
       </c>
       <c r="E12">
-        <v>18.70086192040058</v>
+        <v>18.701</v>
       </c>
       <c r="F12">
-        <v>19.24465039720212</v>
+        <v>19.245</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -698,19 +698,19 @@
         </is>
       </c>
       <c r="B13">
-        <v>19.03805082755149</v>
+        <v>19.038</v>
       </c>
       <c r="C13">
-        <v>0.289589968478757</v>
+        <v>0.29</v>
       </c>
       <c r="D13">
         <v>1669</v>
       </c>
       <c r="E13">
-        <v>18.47005301015068</v>
+        <v>18.47</v>
       </c>
       <c r="F13">
-        <v>19.6060486449523</v>
+        <v>19.606</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="B14">
-        <v>44.19184981096711</v>
+        <v>44.192</v>
       </c>
       <c r="C14">
-        <v>0.2158068519162584</v>
+        <v>0.216</v>
       </c>
       <c r="D14">
         <v>1669</v>
       </c>
       <c r="E14">
-        <v>43.76856919281418</v>
+        <v>43.769</v>
       </c>
       <c r="F14">
-        <v>44.61513042912003</v>
+        <v>44.615</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -752,19 +752,19 @@
         </is>
       </c>
       <c r="B15">
-        <v>44.78081080015667</v>
+        <v>44.781</v>
       </c>
       <c r="C15">
-        <v>0.2240883928296095</v>
+        <v>0.224</v>
       </c>
       <c r="D15">
         <v>1669</v>
       </c>
       <c r="E15">
-        <v>44.34128688052404</v>
+        <v>44.341</v>
       </c>
       <c r="F15">
-        <v>45.22033471978929</v>
+        <v>45.22</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="B16">
-        <v>44.91683844128804</v>
+        <v>44.917</v>
       </c>
       <c r="C16">
-        <v>0.4681295152877089</v>
+        <v>0.468</v>
       </c>
       <c r="D16">
         <v>1669</v>
       </c>
       <c r="E16">
-        <v>43.99865559006189</v>
+        <v>43.999</v>
       </c>
       <c r="F16">
-        <v>45.8350212925142</v>
+        <v>45.835</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -806,19 +806,19 @@
         </is>
       </c>
       <c r="B17">
-        <v>115.2833173892807</v>
+        <v>115.283</v>
       </c>
       <c r="C17">
-        <v>0.469993197060413</v>
+        <v>0.47</v>
       </c>
       <c r="D17">
         <v>1669</v>
       </c>
       <c r="E17">
-        <v>114.3614791380254</v>
+        <v>114.361</v>
       </c>
       <c r="F17">
-        <v>116.2051556405361</v>
+        <v>116.205</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -833,19 +833,19 @@
         </is>
       </c>
       <c r="B18">
-        <v>116.5341795233623</v>
+        <v>116.534</v>
       </c>
       <c r="C18">
-        <v>0.4880290835760223</v>
+        <v>0.488</v>
       </c>
       <c r="D18">
         <v>1669</v>
       </c>
       <c r="E18">
-        <v>115.5769659301033</v>
+        <v>115.577</v>
       </c>
       <c r="F18">
-        <v>117.4913931166212</v>
+        <v>117.491</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -860,19 +860,19 @@
         </is>
       </c>
       <c r="B19">
-        <v>114.5415281333033</v>
+        <v>114.542</v>
       </c>
       <c r="C19">
-        <v>1.019512057076795</v>
+        <v>1.02</v>
       </c>
       <c r="D19">
         <v>1669</v>
       </c>
       <c r="E19">
-        <v>112.5418710793128</v>
+        <v>112.542</v>
       </c>
       <c r="F19">
-        <v>116.5411851872938</v>
+        <v>116.541</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -887,19 +887,19 @@
         </is>
       </c>
       <c r="B20">
-        <v>148.9833993131405</v>
+        <v>148.983</v>
       </c>
       <c r="C20">
-        <v>0.6253200781321092</v>
+        <v>0.625</v>
       </c>
       <c r="D20">
         <v>1669</v>
       </c>
       <c r="E20">
-        <v>147.7569050342753</v>
+        <v>147.757</v>
       </c>
       <c r="F20">
-        <v>150.2098935920056</v>
+        <v>150.21</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -914,19 +914,19 @@
         </is>
       </c>
       <c r="B21">
-        <v>155.4663464356074</v>
+        <v>155.466</v>
       </c>
       <c r="C21">
-        <v>0.6493165998597905</v>
+        <v>0.649</v>
       </c>
       <c r="D21">
         <v>1669</v>
       </c>
       <c r="E21">
-        <v>154.1927857060702</v>
+        <v>154.193</v>
       </c>
       <c r="F21">
-        <v>156.7399071651447</v>
+        <v>156.74</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -941,19 +941,19 @@
         </is>
       </c>
       <c r="B22">
-        <v>156.9495458206324</v>
+        <v>156.95</v>
       </c>
       <c r="C22">
-        <v>1.35644805749378</v>
+        <v>1.356</v>
       </c>
       <c r="D22">
         <v>1669</v>
       </c>
       <c r="E22">
-        <v>154.2890270874686</v>
+        <v>154.289</v>
       </c>
       <c r="F22">
-        <v>159.6100645537961</v>
+        <v>159.61</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -968,19 +968,19 @@
         </is>
       </c>
       <c r="B23">
-        <v>280.549228648549</v>
+        <v>280.549</v>
       </c>
       <c r="C23">
-        <v>0.663242606171626</v>
+        <v>0.663</v>
       </c>
       <c r="D23">
         <v>1669</v>
       </c>
       <c r="E23">
-        <v>279.248353640027</v>
+        <v>279.248</v>
       </c>
       <c r="F23">
-        <v>281.8501036570711</v>
+        <v>281.85</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -995,19 +995,19 @@
         </is>
       </c>
       <c r="B24">
-        <v>282.1124659539652</v>
+        <v>282.112</v>
       </c>
       <c r="C24">
-        <v>0.6886943966486927</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="D24">
         <v>1669</v>
       </c>
       <c r="E24">
-        <v>280.7616701504796</v>
+        <v>280.762</v>
       </c>
       <c r="F24">
-        <v>283.4632617574508</v>
+        <v>283.463</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1022,19 +1022,19 @@
         </is>
       </c>
       <c r="B25">
-        <v>286.1888316112021</v>
+        <v>286.189</v>
       </c>
       <c r="C25">
-        <v>1.438709832372514</v>
+        <v>1.439</v>
       </c>
       <c r="D25">
         <v>1669</v>
       </c>
       <c r="E25">
-        <v>283.3669657539232</v>
+        <v>283.367</v>
       </c>
       <c r="F25">
-        <v>289.010697468481</v>
+        <v>289.011</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1049,19 +1049,19 @@
         </is>
       </c>
       <c r="B26">
-        <v>146.3033083386354</v>
+        <v>146.303</v>
       </c>
       <c r="C26">
-        <v>0.3285988775409958</v>
+        <v>0.329</v>
       </c>
       <c r="D26">
         <v>1669</v>
       </c>
       <c r="E26">
-        <v>145.6587989786458</v>
+        <v>145.659</v>
       </c>
       <c r="F26">
-        <v>146.9478176986249</v>
+        <v>146.948</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="B27">
-        <v>147.1214228131406</v>
+        <v>147.121</v>
       </c>
       <c r="C27">
-        <v>0.3412087878578981</v>
+        <v>0.341</v>
       </c>
       <c r="D27">
         <v>1669</v>
       </c>
       <c r="E27">
-        <v>146.4521805469138</v>
+        <v>146.452</v>
       </c>
       <c r="F27">
-        <v>147.7906650793673</v>
+        <v>147.791</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1103,19 +1103,19 @@
         </is>
       </c>
       <c r="B28">
-        <v>148.3230816569054</v>
+        <v>148.323</v>
       </c>
       <c r="C28">
-        <v>0.7127986525981227</v>
+        <v>0.713</v>
       </c>
       <c r="D28">
         <v>1669</v>
       </c>
       <c r="E28">
-        <v>146.9250080943135</v>
+        <v>146.925</v>
       </c>
       <c r="F28">
-        <v>149.7211552194973</v>
+        <v>149.721</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
